--- a/WIP/Source/FILE_EXCEL/MONHOC.xlsx
+++ b/WIP/Source/FILE_EXCEL/MONHOC.xlsx
@@ -449,7 +449,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -471,7 +471,9 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -480,7 +482,9 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -489,7 +493,9 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -498,7 +504,9 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -507,7 +515,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -516,7 +526,9 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -525,7 +537,9 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
@@ -534,7 +548,9 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -543,7 +559,9 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
@@ -552,7 +570,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
@@ -561,7 +581,9 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -570,7 +592,9 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
@@ -579,7 +603,9 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
